--- a/delivery/To_ZIP/Training_runs.xlsx
+++ b/delivery/To_ZIP/Training_runs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogger\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\PF4\delivery\To_ZIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74471A3D-3216-4568-B3B9-0FD85FBA1931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6D943-1D6E-4A14-BA53-DE8E852794FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t xml:space="preserve">Keyword </t>
   </si>
@@ -28,9 +28,6 @@
     <t>Network architecture</t>
   </si>
   <si>
-    <t>Input resolution</t>
-  </si>
-  <si>
     <t>Setting #1 (task related)</t>
   </si>
   <si>
@@ -58,40 +55,13 @@
     <t>Directory with additional results</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>224x224</t>
   </si>
   <si>
-    <t>examples: Pretrained on ImageNet, N layers frozen</t>
-  </si>
-  <si>
-    <t>example: different types of data normalization</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
     <t>default values</t>
-  </si>
-  <si>
-    <t>categorical cross-entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random crop from 320x320 to 224x224, random rotation (+/- 15°), etc. </t>
-  </si>
-  <si>
-    <t>Any notes you deem useful</t>
-  </si>
-  <si>
-    <t>Insert here loss or create a directory with additional info such as graphs, intermediate models, ROC curves, etc.</t>
-  </si>
-  <si>
-    <t>All parameters that are fixed in all experiments can be reported in a separate sheet / document  or directly in the code</t>
-  </si>
-  <si>
-    <t>ResNet50</t>
   </si>
   <si>
     <t>0.7435</t>
@@ -389,6 +359,10 @@
   </si>
   <si>
     <t>Pretrained on ImageNet, All backbone has a LR multiplied by 0.5 with respect to the general LR. 1 layer unfrozen at the start, 1 more layer unfrozen at epoch 10. At epoch 10 the LR remains the same</t>
+  </si>
+  <si>
+    <t>Input
+ resolution</t>
   </si>
 </sst>
 </file>
@@ -504,12 +478,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -570,6 +540,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -648,10 +627,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7392383</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>43678</xdr:rowOff>
+      <xdr:rowOff>51298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,10 +678,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -750,8 +729,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -801,10 +780,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1609725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,8 +831,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -903,10 +882,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1609725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,8 +933,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7959529</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1600200</xdr:rowOff>
     </xdr:to>
@@ -1235,10 +1214,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7883329</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1590675</xdr:rowOff>
+      <xdr:rowOff>1579245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,10 +1275,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7923334</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1533525</xdr:rowOff>
+      <xdr:rowOff>1539240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,8 +1382,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7957624</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1464,8 +1443,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601436</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7960890</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1515,10 +1494,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601436</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7960890</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1605643</xdr:rowOff>
+      <xdr:rowOff>1613263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1764,838 +1743,810 @@
   </sheetPr>
   <dimension ref="A2:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="107.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="137.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="5"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+    <row r="8" spans="1:20" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G18" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10" t="s">
+    <row r="19" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7"/>
+      <c r="J23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7"/>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="22"/>
     </row>
-    <row r="7" spans="1:20" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="24"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
